--- a/Matchup Wins.xlsx
+++ b/Matchup Wins.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ufv1974-my.sharepoint.com/personal/dewang_marya_student_ufv_ca/Documents/MLB Research/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dewang\Desktop\MLB research\mlb-research\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="81" documentId="8_{71D6BEC1-8748-40F3-9A15-A55D2550645C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{87B1C7D0-38B1-4249-920B-F4E245619F3B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5BB22B0-9AB8-4B62-A7E5-8D2D15654329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{92DF9C3A-B62C-462D-B7EB-3C089D0C4AB6}"/>
   </bookViews>
@@ -561,12 +561,15 @@
   <dimension ref="A1:AE32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+      <selection activeCell="AE33" sqref="AE33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="11" width="0.140625" customWidth="1"/>
+    <col min="12" max="12" width="0.42578125" customWidth="1"/>
+    <col min="13" max="23" width="0.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
@@ -687,64 +690,64 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T2">
         <v>0</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Z2">
         <v>0</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AB2">
         <v>0</v>
@@ -756,7 +759,7 @@
         <v>0</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
@@ -782,76 +785,76 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="T3">
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AB3">
         <v>0</v>
       </c>
       <c r="AC3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE3">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
@@ -880,22 +883,22 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -904,25 +907,25 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V4">
         <v>0</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X4">
         <v>0</v>
@@ -931,22 +934,22 @@
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA4">
         <v>0</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AC4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AE4">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
@@ -972,25 +975,25 @@
         <v>3</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -1002,19 +1005,19 @@
         <v>0</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W5">
         <v>0</v>
@@ -1026,19 +1029,19 @@
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AA5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AC5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AE5">
         <v>0</v>
@@ -1067,19 +1070,19 @@
         <v>3</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -1088,19 +1091,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -1109,34 +1112,34 @@
         <v>0</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Z6">
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AC6">
         <v>0</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE6">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
@@ -1165,25 +1168,25 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -1192,16 +1195,16 @@
         <v>0</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V7">
         <v>0</v>
@@ -1216,19 +1219,19 @@
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA7">
         <v>0</v>
       </c>
       <c r="AB7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AC7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AD7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AE7">
         <v>0</v>
@@ -1260,16 +1263,16 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -1278,43 +1281,43 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="R8">
         <v>0</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U8">
         <v>0</v>
       </c>
       <c r="V8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W8">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="X8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z8">
         <v>0</v>
       </c>
       <c r="AA8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AB8">
         <v>0</v>
@@ -1323,10 +1326,10 @@
         <v>0</v>
       </c>
       <c r="AD8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE8">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
@@ -1352,28 +1355,28 @@
         <v>11</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -1382,16 +1385,16 @@
         <v>0</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V9">
         <v>0</v>
@@ -1400,25 +1403,25 @@
         <v>0</v>
       </c>
       <c r="X9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AA9">
         <v>0</v>
       </c>
       <c r="AB9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AD9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE9">
         <v>0</v>
@@ -1447,7 +1450,7 @@
         <v>1</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -1456,31 +1459,31 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="T10">
         <v>0</v>
@@ -1489,22 +1492,22 @@
         <v>0</v>
       </c>
       <c r="V10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X10">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Y10">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Z10">
         <v>0</v>
       </c>
       <c r="AA10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AB10">
         <v>0</v>
@@ -1516,7 +1519,7 @@
         <v>0</v>
       </c>
       <c r="AE10">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
@@ -1545,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -1557,10 +1560,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -1572,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R11">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U11">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="V11">
         <v>0</v>
@@ -1590,25 +1593,25 @@
         <v>0</v>
       </c>
       <c r="X11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AA11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AC11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AD11">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AE11">
         <v>0</v>
@@ -1637,13 +1640,13 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1658,55 +1661,55 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="R12">
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U12">
         <v>0</v>
       </c>
       <c r="V12">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W12">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="X12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z12">
         <v>0</v>
       </c>
       <c r="AA12">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AB12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AD12">
         <v>0</v>
       </c>
       <c r="AE12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
@@ -1735,13 +1738,13 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -1750,28 +1753,28 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
       <c r="R13">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V13">
         <v>0</v>
@@ -1783,22 +1786,22 @@
         <v>0</v>
       </c>
       <c r="Y13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB13">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AC13">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AD13">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AE13">
         <v>0</v>
@@ -1830,25 +1833,25 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -1857,16 +1860,16 @@
         <v>0</v>
       </c>
       <c r="R14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U14">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="V14">
         <v>0</v>
@@ -1881,22 +1884,22 @@
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AA14">
         <v>0</v>
       </c>
       <c r="AB14">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AC14">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AD14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.25">
@@ -1922,40 +1925,40 @@
         <v>2</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R15">
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T15">
         <v>0</v>
@@ -1964,22 +1967,22 @@
         <v>0</v>
       </c>
       <c r="V15">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X15">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Y15">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Z15">
         <v>0</v>
       </c>
       <c r="AA15">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AB15">
         <v>0</v>
@@ -1991,7 +1994,7 @@
         <v>0</v>
       </c>
       <c r="AE15">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
@@ -2017,67 +2020,67 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R16">
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T16">
         <v>0</v>
       </c>
       <c r="U16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V16">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="W16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA16">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AB16">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AC16">
         <v>0</v>
@@ -2086,7 +2089,7 @@
         <v>0</v>
       </c>
       <c r="AE16">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.25">
@@ -2112,19 +2115,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -2133,19 +2136,19 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
       <c r="R17">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T17">
         <v>0</v>
@@ -2154,13 +2157,13 @@
         <v>0</v>
       </c>
       <c r="V17">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y17">
         <v>0</v>
@@ -2169,7 +2172,7 @@
         <v>0</v>
       </c>
       <c r="AA17">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AB17">
         <v>0</v>
@@ -2181,7 +2184,7 @@
         <v>0</v>
       </c>
       <c r="AE17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.25">
@@ -2210,22 +2213,22 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -2234,7 +2237,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R18">
         <v>0</v>
@@ -2243,10 +2246,10 @@
         <v>0</v>
       </c>
       <c r="T18">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="U18">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V18">
         <v>0</v>
@@ -2261,19 +2264,19 @@
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AA18">
         <v>0</v>
       </c>
       <c r="AB18">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AC18">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AD18">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AE18">
         <v>0</v>
@@ -2302,34 +2305,34 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R19">
         <v>0</v>
@@ -2338,40 +2341,40 @@
         <v>0</v>
       </c>
       <c r="T19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U19">
         <v>0</v>
       </c>
       <c r="V19">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="W19">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X19">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Y19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA19">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AB19">
         <v>0</v>
       </c>
       <c r="AC19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD19">
         <v>0</v>
       </c>
       <c r="AE19">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.25">
@@ -2397,25 +2400,25 @@
         <v>2</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -2427,22 +2430,22 @@
         <v>0</v>
       </c>
       <c r="R20">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S20">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T20">
         <v>0</v>
       </c>
       <c r="U20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V20">
         <v>0</v>
       </c>
       <c r="W20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X20">
         <v>0</v>
@@ -2451,19 +2454,19 @@
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA20">
         <v>0</v>
       </c>
       <c r="AB20">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AC20">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AD20">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AE20">
         <v>0</v>
@@ -2495,46 +2498,46 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
       <c r="R21">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U21">
         <v>0</v>
       </c>
       <c r="V21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21">
         <v>0</v>
@@ -2543,22 +2546,22 @@
         <v>0</v>
       </c>
       <c r="Y21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z21">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AA21">
         <v>0</v>
       </c>
       <c r="AB21">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AC21">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AD21">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AE21">
         <v>0</v>
@@ -2587,7 +2590,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -2599,64 +2602,64 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R22">
         <v>0</v>
       </c>
       <c r="S22">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="T22">
         <v>0</v>
       </c>
       <c r="U22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V22">
         <v>0</v>
       </c>
       <c r="W22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z22">
         <v>0</v>
       </c>
       <c r="AA22">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AB22">
         <v>0</v>
       </c>
       <c r="AC22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE22">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.25">
@@ -2682,19 +2685,19 @@
         <v>3</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -2703,55 +2706,55 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q23">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="R23">
         <v>0</v>
       </c>
       <c r="S23">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U23">
         <v>0</v>
       </c>
       <c r="V23">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W23">
         <v>0</v>
       </c>
       <c r="X23">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Y23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z23">
         <v>0</v>
       </c>
       <c r="AA23">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AB23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC23">
         <v>0</v>
       </c>
       <c r="AD23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE23">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.25">
@@ -2777,19 +2780,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -2798,43 +2801,43 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q24">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U24">
         <v>0</v>
       </c>
       <c r="V24">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X24">
         <v>0</v>
       </c>
       <c r="Y24">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Z24">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AA24">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AB24">
         <v>0</v>
@@ -2846,7 +2849,7 @@
         <v>0</v>
       </c>
       <c r="AE24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.25">
@@ -2872,55 +2875,55 @@
         <v>3</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q25">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R25">
         <v>0</v>
       </c>
       <c r="S25">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T25">
         <v>0</v>
       </c>
       <c r="U25">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V25">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W25">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X25">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Y25">
         <v>0</v>
@@ -2929,7 +2932,7 @@
         <v>0</v>
       </c>
       <c r="AA25">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AB25">
         <v>0</v>
@@ -2970,43 +2973,43 @@
         <v>0</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J26">
         <v>0</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L26">
         <v>0</v>
       </c>
       <c r="M26">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N26">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="O26">
         <v>0</v>
       </c>
       <c r="P26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q26">
         <v>0</v>
       </c>
       <c r="R26">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T26">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="U26">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="V26">
         <v>0</v>
@@ -3015,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="X26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y26">
         <v>0</v>
@@ -3027,16 +3030,16 @@
         <v>0</v>
       </c>
       <c r="AB26">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AC26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD26">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AE26">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.25">
@@ -3062,40 +3065,40 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L27">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M27">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N27">
         <v>0</v>
       </c>
       <c r="O27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q27">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R27">
         <v>0</v>
       </c>
       <c r="S27">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T27">
         <v>0</v>
@@ -3104,16 +3107,16 @@
         <v>0</v>
       </c>
       <c r="V27">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W27">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="X27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y27">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z27">
         <v>0</v>
@@ -3122,7 +3125,7 @@
         <v>0</v>
       </c>
       <c r="AB27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC27">
         <v>0</v>
@@ -3131,7 +3134,7 @@
         <v>0</v>
       </c>
       <c r="AE27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.25">
@@ -3160,49 +3163,49 @@
         <v>0</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J28">
         <v>0</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O28">
         <v>0</v>
       </c>
       <c r="P28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q28">
         <v>0</v>
       </c>
       <c r="R28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="U28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V28">
         <v>0</v>
       </c>
       <c r="W28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X28">
         <v>0</v>
@@ -3211,19 +3214,19 @@
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AA28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB28">
         <v>0</v>
       </c>
       <c r="AC28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AD28">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AE28">
         <v>0</v>
@@ -3255,22 +3258,22 @@
         <v>0</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J29">
         <v>0</v>
       </c>
       <c r="K29">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L29">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N29">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="O29">
         <v>0</v>
@@ -3282,19 +3285,19 @@
         <v>0</v>
       </c>
       <c r="R29">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T29">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U29">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="V29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W29">
         <v>0</v>
@@ -3306,22 +3309,22 @@
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AA29">
         <v>0</v>
       </c>
       <c r="AB29">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AC29">
         <v>0</v>
       </c>
       <c r="AD29">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AE29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.25">
@@ -3347,25 +3350,25 @@
         <v>1</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J30">
         <v>0</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>0</v>
       </c>
       <c r="M30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N30">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O30">
         <v>0</v>
@@ -3374,7 +3377,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R30">
         <v>0</v>
@@ -3383,16 +3386,16 @@
         <v>0</v>
       </c>
       <c r="T30">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="U30">
         <v>0</v>
       </c>
       <c r="V30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X30">
         <v>0</v>
@@ -3401,16 +3404,16 @@
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AA30">
         <v>0</v>
       </c>
       <c r="AB30">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AC30">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AD30">
         <v>0</v>
@@ -3442,70 +3445,70 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I31">
         <v>0</v>
       </c>
       <c r="J31">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K31">
         <v>0</v>
       </c>
       <c r="L31">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M31">
         <v>0</v>
       </c>
       <c r="N31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O31">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P31">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="Q31">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R31">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S31">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="T31">
         <v>0</v>
       </c>
       <c r="U31">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V31">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="W31">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X31">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Y31">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Z31">
         <v>0</v>
       </c>
       <c r="AA31">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AB31">
         <v>0</v>
       </c>
       <c r="AC31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD31">
         <v>0</v>
@@ -3516,28 +3519,124 @@
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B32">
-        <f>SUM(B2:B31)</f>
+        <f t="shared" ref="B32:G32" si="0">SUM(B2:B31)</f>
         <v>82</v>
       </c>
       <c r="C32">
-        <f>SUM(C2:C31)</f>
+        <f t="shared" si="0"/>
         <v>72</v>
       </c>
       <c r="D32">
-        <f>SUM(D2:D31)</f>
+        <f t="shared" si="0"/>
         <v>68</v>
       </c>
       <c r="E32">
-        <f>SUM(E2:E31)</f>
+        <f t="shared" si="0"/>
         <v>104</v>
       </c>
       <c r="F32">
-        <f>SUM(F2:F31)</f>
+        <f t="shared" si="0"/>
         <v>97</v>
       </c>
       <c r="G32">
-        <f>SUM(G2:G31)</f>
+        <f t="shared" si="0"/>
         <v>89</v>
+      </c>
+      <c r="H32">
+        <f>SUM(H2:H31)</f>
+        <v>74</v>
+      </c>
+      <c r="I32">
+        <f>SUM(I2:I31)</f>
+        <v>81</v>
+      </c>
+      <c r="J32">
+        <f>SUM(J2:J31)</f>
+        <v>74</v>
+      </c>
+      <c r="K32">
+        <f>SUM(K2:K31)</f>
+        <v>74</v>
+      </c>
+      <c r="L32">
+        <f>SUM(L2:L31)</f>
+        <v>86</v>
+      </c>
+      <c r="M32">
+        <f>SUM(M2:M31)</f>
+        <v>75</v>
+      </c>
+      <c r="N32">
+        <f>SUM(N2:N31)</f>
+        <v>100</v>
+      </c>
+      <c r="O32">
+        <f>SUM(O2:O31)</f>
+        <v>84</v>
+      </c>
+      <c r="P32">
+        <f>SUM(P2:P31)</f>
+        <v>84</v>
+      </c>
+      <c r="Q32">
+        <f>SUM(Q2:Q31)</f>
+        <v>90</v>
+      </c>
+      <c r="R32">
+        <f>SUM(R2:R31)</f>
+        <v>88</v>
+      </c>
+      <c r="S32">
+        <f>SUM(S2:S31)</f>
+        <v>89</v>
+      </c>
+      <c r="T32">
+        <f>SUM(T2:T31)</f>
+        <v>89</v>
+      </c>
+      <c r="U32">
+        <f>SUM(U2:U31)</f>
+        <v>75</v>
+      </c>
+      <c r="V32">
+        <f>SUM(V2:V31)</f>
+        <v>92</v>
+      </c>
+      <c r="W32">
+        <f>SUM(W2:W31)</f>
+        <v>67</v>
+      </c>
+      <c r="X32">
+        <f>SUM(X2:X31)</f>
+        <v>63</v>
+      </c>
+      <c r="Y32">
+        <f>SUM(Y2:Y31)</f>
+        <v>76</v>
+      </c>
+      <c r="Z32">
+        <f>SUM(Z2:Z31)</f>
+        <v>61</v>
+      </c>
+      <c r="AA32">
+        <f>SUM(AA2:AA31)</f>
+        <v>86</v>
+      </c>
+      <c r="AB32">
+        <f>SUM(AB2:AB31)</f>
+        <v>97</v>
+      </c>
+      <c r="AC32">
+        <f>SUM(AC2:AC31)</f>
+        <v>69</v>
+      </c>
+      <c r="AD32">
+        <f>SUM(AD2:AD31)</f>
+        <v>86</v>
+      </c>
+      <c r="AE32">
+        <f>SUM(AE2:AE31)</f>
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/Matchup Wins.xlsx
+++ b/Matchup Wins.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dewang\Desktop\MLB research\mlb-research\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5BB22B0-9AB8-4B62-A7E5-8D2D15654329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F91E0094-E98C-4F8C-8271-382804184A4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{92DF9C3A-B62C-462D-B7EB-3C089D0C4AB6}"/>
+    <workbookView xWindow="9135" yWindow="0" windowWidth="17850" windowHeight="14250" xr2:uid="{92DF9C3A-B62C-462D-B7EB-3C089D0C4AB6}"/>
   </bookViews>
   <sheets>
     <sheet name="2008" sheetId="1" r:id="rId1"/>
@@ -560,16 +560,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0BF7392-8A71-4CA0-929D-DEE83C009FB2}">
   <dimension ref="A1:AE32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AE33" sqref="AE33"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="AC33" sqref="AC33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="11" width="0.140625" customWidth="1"/>
-    <col min="12" max="12" width="0.42578125" customWidth="1"/>
-    <col min="13" max="23" width="0.140625" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="5" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="8" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
@@ -3543,99 +3568,99 @@
         <v>89</v>
       </c>
       <c r="H32">
-        <f>SUM(H2:H31)</f>
+        <f t="shared" ref="H32:AE32" si="1">SUM(H2:H31)</f>
         <v>74</v>
       </c>
       <c r="I32">
-        <f>SUM(I2:I31)</f>
+        <f t="shared" si="1"/>
         <v>81</v>
       </c>
       <c r="J32">
-        <f>SUM(J2:J31)</f>
+        <f t="shared" si="1"/>
         <v>74</v>
       </c>
       <c r="K32">
-        <f>SUM(K2:K31)</f>
+        <f t="shared" si="1"/>
         <v>74</v>
       </c>
       <c r="L32">
-        <f>SUM(L2:L31)</f>
+        <f t="shared" si="1"/>
         <v>86</v>
       </c>
       <c r="M32">
-        <f>SUM(M2:M31)</f>
+        <f t="shared" si="1"/>
         <v>75</v>
       </c>
       <c r="N32">
-        <f>SUM(N2:N31)</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="O32">
-        <f>SUM(O2:O31)</f>
+        <f t="shared" si="1"/>
         <v>84</v>
       </c>
       <c r="P32">
-        <f>SUM(P2:P31)</f>
+        <f t="shared" si="1"/>
         <v>84</v>
       </c>
       <c r="Q32">
-        <f>SUM(Q2:Q31)</f>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="R32">
-        <f>SUM(R2:R31)</f>
+        <f t="shared" si="1"/>
         <v>88</v>
       </c>
       <c r="S32">
-        <f>SUM(S2:S31)</f>
+        <f t="shared" si="1"/>
         <v>89</v>
       </c>
       <c r="T32">
-        <f>SUM(T2:T31)</f>
+        <f t="shared" si="1"/>
         <v>89</v>
       </c>
       <c r="U32">
-        <f>SUM(U2:U31)</f>
+        <f t="shared" si="1"/>
         <v>75</v>
       </c>
       <c r="V32">
-        <f>SUM(V2:V31)</f>
+        <f t="shared" si="1"/>
         <v>92</v>
       </c>
       <c r="W32">
-        <f>SUM(W2:W31)</f>
+        <f t="shared" si="1"/>
         <v>67</v>
       </c>
       <c r="X32">
-        <f>SUM(X2:X31)</f>
+        <f t="shared" si="1"/>
         <v>63</v>
       </c>
       <c r="Y32">
-        <f>SUM(Y2:Y31)</f>
+        <f t="shared" si="1"/>
         <v>76</v>
       </c>
       <c r="Z32">
-        <f>SUM(Z2:Z31)</f>
+        <f t="shared" si="1"/>
         <v>61</v>
       </c>
       <c r="AA32">
-        <f>SUM(AA2:AA31)</f>
+        <f t="shared" si="1"/>
         <v>86</v>
       </c>
       <c r="AB32">
-        <f>SUM(AB2:AB31)</f>
+        <f t="shared" si="1"/>
         <v>97</v>
       </c>
       <c r="AC32">
-        <f>SUM(AC2:AC31)</f>
+        <f t="shared" si="1"/>
         <v>69</v>
       </c>
       <c r="AD32">
-        <f>SUM(AD2:AD31)</f>
+        <f t="shared" si="1"/>
         <v>86</v>
       </c>
       <c r="AE32">
-        <f>SUM(AE2:AE31)</f>
+        <f t="shared" si="1"/>
         <v>59</v>
       </c>
     </row>

--- a/Matchup Wins.xlsx
+++ b/Matchup Wins.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dewang\Desktop\MLB research\mlb-research\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F91E0094-E98C-4F8C-8271-382804184A4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80225017-9A4F-4DFB-A242-81A62BCF17B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9135" yWindow="0" windowWidth="17850" windowHeight="14250" xr2:uid="{92DF9C3A-B62C-462D-B7EB-3C089D0C4AB6}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="1" xr2:uid="{92DF9C3A-B62C-462D-B7EB-3C089D0C4AB6}"/>
   </bookViews>
   <sheets>
     <sheet name="2008" sheetId="1" r:id="rId1"/>
+    <sheet name="2014" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="57">
   <si>
     <t>Teams</t>
   </si>
@@ -560,8 +561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0BF7392-8A71-4CA0-929D-DEE83C009FB2}">
   <dimension ref="A1:AE32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="AC33" sqref="AC33"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3667,4 +3668,3090 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C896A4FD-5117-4C6D-9FE4-746CEA36354B}">
+  <dimension ref="A1:AE32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AE33" sqref="AE33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="23" width="0.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R1" t="s">
+        <v>43</v>
+      </c>
+      <c r="S1" t="s">
+        <v>44</v>
+      </c>
+      <c r="T1" t="s">
+        <v>45</v>
+      </c>
+      <c r="U1" t="s">
+        <v>46</v>
+      </c>
+      <c r="V1" t="s">
+        <v>47</v>
+      </c>
+      <c r="W1" t="s">
+        <v>48</v>
+      </c>
+      <c r="X1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>4</v>
+      </c>
+      <c r="I2">
+        <v>2</v>
+      </c>
+      <c r="J2">
+        <v>10</v>
+      </c>
+      <c r="K2">
+        <v>2</v>
+      </c>
+      <c r="L2">
+        <v>3</v>
+      </c>
+      <c r="M2">
+        <v>3</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>15</v>
+      </c>
+      <c r="P2">
+        <v>4</v>
+      </c>
+      <c r="Q2">
+        <v>4</v>
+      </c>
+      <c r="R2">
+        <v>2</v>
+      </c>
+      <c r="S2">
+        <v>4</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>4</v>
+      </c>
+      <c r="W2">
+        <v>4</v>
+      </c>
+      <c r="X2">
+        <v>7</v>
+      </c>
+      <c r="Y2">
+        <v>13</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>5</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>3</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>6</v>
+      </c>
+      <c r="P3">
+        <v>10</v>
+      </c>
+      <c r="Q3">
+        <v>2</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>10</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>8</v>
+      </c>
+      <c r="W3">
+        <v>4</v>
+      </c>
+      <c r="X3">
+        <v>4</v>
+      </c>
+      <c r="Y3">
+        <v>5</v>
+      </c>
+      <c r="Z3">
+        <v>4</v>
+      </c>
+      <c r="AA3">
+        <v>4</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>3</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>8</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>4</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>5</v>
+      </c>
+      <c r="L4">
+        <v>3</v>
+      </c>
+      <c r="M4">
+        <v>4</v>
+      </c>
+      <c r="N4">
+        <v>2</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>2</v>
+      </c>
+      <c r="R4">
+        <v>3</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>6</v>
+      </c>
+      <c r="U4">
+        <v>4</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>1</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>2</v>
+      </c>
+      <c r="AA4">
+        <v>1</v>
+      </c>
+      <c r="AB4">
+        <v>7</v>
+      </c>
+      <c r="AC4">
+        <v>1</v>
+      </c>
+      <c r="AD4">
+        <v>8</v>
+      </c>
+      <c r="AE4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>11</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>5</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>5</v>
+      </c>
+      <c r="L5">
+        <v>3</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>5</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>3</v>
+      </c>
+      <c r="R5">
+        <v>2</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>12</v>
+      </c>
+      <c r="U5">
+        <v>4</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>3</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>5</v>
+      </c>
+      <c r="AA5">
+        <v>2</v>
+      </c>
+      <c r="AB5">
+        <v>10</v>
+      </c>
+      <c r="AC5">
+        <v>2</v>
+      </c>
+      <c r="AD5">
+        <v>12</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6">
+        <v>11</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>2</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>4</v>
+      </c>
+      <c r="P6">
+        <v>2</v>
+      </c>
+      <c r="Q6">
+        <v>8</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>2</v>
+      </c>
+      <c r="T6">
+        <v>3</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>3</v>
+      </c>
+      <c r="W6">
+        <v>14</v>
+      </c>
+      <c r="X6">
+        <v>4</v>
+      </c>
+      <c r="Y6">
+        <v>4</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>10</v>
+      </c>
+      <c r="AB6">
+        <v>2</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>3</v>
+      </c>
+      <c r="AE6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>10</v>
+      </c>
+      <c r="J7">
+        <v>2</v>
+      </c>
+      <c r="K7">
+        <v>10</v>
+      </c>
+      <c r="L7">
+        <v>3</v>
+      </c>
+      <c r="M7">
+        <v>13</v>
+      </c>
+      <c r="N7">
+        <v>5</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>10</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>5</v>
+      </c>
+      <c r="U7">
+        <v>3</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>2</v>
+      </c>
+      <c r="Y7">
+        <v>1</v>
+      </c>
+      <c r="Z7">
+        <v>4</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>2</v>
+      </c>
+      <c r="AC7">
+        <v>4</v>
+      </c>
+      <c r="AD7">
+        <v>2</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8">
+        <v>8</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>4</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>4</v>
+      </c>
+      <c r="P8">
+        <v>3</v>
+      </c>
+      <c r="Q8">
+        <v>9</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>4</v>
+      </c>
+      <c r="T8">
+        <v>3</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>3</v>
+      </c>
+      <c r="W8">
+        <v>7</v>
+      </c>
+      <c r="X8">
+        <v>5</v>
+      </c>
+      <c r="Y8">
+        <v>2</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>12</v>
+      </c>
+      <c r="AB8">
+        <v>2</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>1</v>
+      </c>
+      <c r="AE8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>9</v>
+      </c>
+      <c r="H9">
+        <v>3</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>11</v>
+      </c>
+      <c r="L9">
+        <v>2</v>
+      </c>
+      <c r="M9">
+        <v>9</v>
+      </c>
+      <c r="N9">
+        <v>5</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>8</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>3</v>
+      </c>
+      <c r="U9">
+        <v>4</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>1</v>
+      </c>
+      <c r="Y9">
+        <v>3</v>
+      </c>
+      <c r="Z9">
+        <v>4</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>2</v>
+      </c>
+      <c r="AC9">
+        <v>1</v>
+      </c>
+      <c r="AD9">
+        <v>4</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>5</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>3</v>
+      </c>
+      <c r="I10">
+        <v>3</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>3</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>13</v>
+      </c>
+      <c r="P10">
+        <v>4</v>
+      </c>
+      <c r="Q10">
+        <v>6</v>
+      </c>
+      <c r="R10">
+        <v>2</v>
+      </c>
+      <c r="S10">
+        <v>4</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>3</v>
+      </c>
+      <c r="W10">
+        <v>4</v>
+      </c>
+      <c r="X10">
+        <v>9</v>
+      </c>
+      <c r="Y10">
+        <v>9</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>5</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>1</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>9</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>8</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>3</v>
+      </c>
+      <c r="M11">
+        <v>6</v>
+      </c>
+      <c r="N11">
+        <v>4</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>10</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>4</v>
+      </c>
+      <c r="U11">
+        <v>2</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>2</v>
+      </c>
+      <c r="X11">
+        <v>2</v>
+      </c>
+      <c r="Y11">
+        <v>2</v>
+      </c>
+      <c r="Z11">
+        <v>4</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>4</v>
+      </c>
+      <c r="AC11">
+        <v>3</v>
+      </c>
+      <c r="AD11">
+        <v>5</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12">
+        <v>4</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>5</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>4</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>3</v>
+      </c>
+      <c r="N12">
+        <v>12</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>3</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>3</v>
+      </c>
+      <c r="S12">
+        <v>2</v>
+      </c>
+      <c r="T12">
+        <v>2</v>
+      </c>
+      <c r="U12">
+        <v>11</v>
+      </c>
+      <c r="V12">
+        <v>3</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>10</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>5</v>
+      </c>
+      <c r="AC12">
+        <v>8</v>
+      </c>
+      <c r="AD12">
+        <v>3</v>
+      </c>
+      <c r="AE12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>6</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>6</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>10</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>13</v>
+      </c>
+      <c r="L13">
+        <v>3</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>3</v>
+      </c>
+      <c r="O13">
+        <v>2</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>8</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>3</v>
+      </c>
+      <c r="U13">
+        <v>2</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>1</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>5</v>
+      </c>
+      <c r="AA13">
+        <v>1</v>
+      </c>
+      <c r="AB13">
+        <v>2</v>
+      </c>
+      <c r="AC13">
+        <v>1</v>
+      </c>
+      <c r="AD13">
+        <v>3</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>2</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>7</v>
+      </c>
+      <c r="M14">
+        <v>3</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>3</v>
+      </c>
+      <c r="P14">
+        <v>1</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>1</v>
+      </c>
+      <c r="T14">
+        <v>4</v>
+      </c>
+      <c r="U14">
+        <v>9</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>12</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>2</v>
+      </c>
+      <c r="AC14">
+        <v>5</v>
+      </c>
+      <c r="AD14">
+        <v>2</v>
+      </c>
+      <c r="AE14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+      <c r="H15">
+        <v>3</v>
+      </c>
+      <c r="I15">
+        <v>2</v>
+      </c>
+      <c r="J15">
+        <v>6</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>3</v>
+      </c>
+      <c r="Q15">
+        <v>5</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>2</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>4</v>
+      </c>
+      <c r="W15">
+        <v>5</v>
+      </c>
+      <c r="X15">
+        <v>7</v>
+      </c>
+      <c r="Y15">
+        <v>9</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>3</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>9</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>4</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>4</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>3</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>2</v>
+      </c>
+      <c r="O16">
+        <v>3</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>4</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>11</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>3</v>
+      </c>
+      <c r="V16">
+        <v>10</v>
+      </c>
+      <c r="W16">
+        <v>4</v>
+      </c>
+      <c r="X16">
+        <v>4</v>
+      </c>
+      <c r="Y16">
+        <v>4</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>2</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>2</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <v>5</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>11</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>10</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="P17">
+        <v>3</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>2</v>
+      </c>
+      <c r="S17">
+        <v>3</v>
+      </c>
+      <c r="T17">
+        <v>1</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>4</v>
+      </c>
+      <c r="W17">
+        <v>7</v>
+      </c>
+      <c r="X17">
+        <v>3</v>
+      </c>
+      <c r="Y17">
+        <v>4</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>12</v>
+      </c>
+      <c r="AB17">
+        <v>2</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>3</v>
+      </c>
+      <c r="AE17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>4</v>
+      </c>
+      <c r="E18">
+        <v>4</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>9</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>11</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>9</v>
+      </c>
+      <c r="L18">
+        <v>3</v>
+      </c>
+      <c r="M18">
+        <v>11</v>
+      </c>
+      <c r="N18">
+        <v>7</v>
+      </c>
+      <c r="O18">
+        <v>3</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>2</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>4</v>
+      </c>
+      <c r="U18">
+        <v>6</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>1</v>
+      </c>
+      <c r="Y18">
+        <v>3</v>
+      </c>
+      <c r="Z18">
+        <v>2</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>4</v>
+      </c>
+      <c r="AC18">
+        <v>5</v>
+      </c>
+      <c r="AD18">
+        <v>2</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>5</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>2</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>3</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>2</v>
+      </c>
+      <c r="O19">
+        <v>4</v>
+      </c>
+      <c r="P19">
+        <v>8</v>
+      </c>
+      <c r="Q19">
+        <v>4</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>2</v>
+      </c>
+      <c r="U19">
+        <v>2</v>
+      </c>
+      <c r="V19">
+        <v>6</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>3</v>
+      </c>
+      <c r="Y19">
+        <v>6</v>
+      </c>
+      <c r="Z19">
+        <v>1</v>
+      </c>
+      <c r="AA19">
+        <v>3</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+      <c r="AC19">
+        <v>1</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>13</v>
+      </c>
+      <c r="E20">
+        <v>7</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>2</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>4</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>4</v>
+      </c>
+      <c r="M20">
+        <v>4</v>
+      </c>
+      <c r="N20">
+        <v>2</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>2</v>
+      </c>
+      <c r="R20">
+        <v>3</v>
+      </c>
+      <c r="S20">
+        <v>2</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>4</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>4</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <v>3</v>
+      </c>
+      <c r="AA20">
+        <v>1</v>
+      </c>
+      <c r="AB20">
+        <v>11</v>
+      </c>
+      <c r="AC20">
+        <v>3</v>
+      </c>
+      <c r="AD20">
+        <v>8</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>4</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>2</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>5</v>
+      </c>
+      <c r="L21">
+        <v>8</v>
+      </c>
+      <c r="M21">
+        <v>5</v>
+      </c>
+      <c r="N21">
+        <v>10</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>1</v>
+      </c>
+      <c r="S21">
+        <v>2</v>
+      </c>
+      <c r="T21">
+        <v>2</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>1</v>
+      </c>
+      <c r="W21">
+        <v>1</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>1</v>
+      </c>
+      <c r="Z21">
+        <v>10</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>2</v>
+      </c>
+      <c r="AC21">
+        <v>10</v>
+      </c>
+      <c r="AD21">
+        <v>3</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <v>11</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>3</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>3</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>3</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>4</v>
+      </c>
+      <c r="O22">
+        <v>3</v>
+      </c>
+      <c r="P22">
+        <v>9</v>
+      </c>
+      <c r="Q22">
+        <v>3</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>13</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>2</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>6</v>
+      </c>
+      <c r="X22">
+        <v>3</v>
+      </c>
+      <c r="Y22">
+        <v>5</v>
+      </c>
+      <c r="Z22">
+        <v>1</v>
+      </c>
+      <c r="AA22">
+        <v>3</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+      <c r="AC22">
+        <v>2</v>
+      </c>
+      <c r="AD22">
+        <v>4</v>
+      </c>
+      <c r="AE22">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>5</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>12</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>2</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>2</v>
+      </c>
+      <c r="P23">
+        <v>2</v>
+      </c>
+      <c r="Q23">
+        <v>12</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>3</v>
+      </c>
+      <c r="T23">
+        <v>2</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>1</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>3</v>
+      </c>
+      <c r="Y23">
+        <v>2</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23">
+        <v>11</v>
+      </c>
+      <c r="AB23">
+        <v>1</v>
+      </c>
+      <c r="AC23">
+        <v>0</v>
+      </c>
+      <c r="AD23">
+        <v>1</v>
+      </c>
+      <c r="AE23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>12</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>3</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>2</v>
+      </c>
+      <c r="J24">
+        <v>10</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>2</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>12</v>
+      </c>
+      <c r="P24">
+        <v>3</v>
+      </c>
+      <c r="Q24">
+        <v>3</v>
+      </c>
+      <c r="R24">
+        <v>3</v>
+      </c>
+      <c r="S24">
+        <v>3</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>4</v>
+      </c>
+      <c r="W24">
+        <v>3</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <v>9</v>
+      </c>
+      <c r="Z24">
+        <v>2</v>
+      </c>
+      <c r="AA24">
+        <v>4</v>
+      </c>
+      <c r="AB24">
+        <v>0</v>
+      </c>
+      <c r="AC24">
+        <v>0</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>6</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+      <c r="G25">
+        <v>3</v>
+      </c>
+      <c r="H25">
+        <v>5</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>10</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>3</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>10</v>
+      </c>
+      <c r="P25">
+        <v>3</v>
+      </c>
+      <c r="Q25">
+        <v>2</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>1</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>3</v>
+      </c>
+      <c r="V25">
+        <v>2</v>
+      </c>
+      <c r="W25">
+        <v>4</v>
+      </c>
+      <c r="X25">
+        <v>10</v>
+      </c>
+      <c r="Y25">
+        <v>0</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+      <c r="AA25">
+        <v>3</v>
+      </c>
+      <c r="AB25">
+        <v>0</v>
+      </c>
+      <c r="AC25">
+        <v>0</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>5</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>3</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>2</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>9</v>
+      </c>
+      <c r="M26">
+        <v>2</v>
+      </c>
+      <c r="N26">
+        <v>7</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>3</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>5</v>
+      </c>
+      <c r="S26">
+        <v>2</v>
+      </c>
+      <c r="T26">
+        <v>3</v>
+      </c>
+      <c r="U26">
+        <v>9</v>
+      </c>
+      <c r="V26">
+        <v>2</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <v>2</v>
+      </c>
+      <c r="Y26">
+        <v>0</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+      <c r="AA26">
+        <v>0</v>
+      </c>
+      <c r="AB26">
+        <v>3</v>
+      </c>
+      <c r="AC26">
+        <v>10</v>
+      </c>
+      <c r="AD26">
+        <v>3</v>
+      </c>
+      <c r="AE26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>9</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>7</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>3</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>4</v>
+      </c>
+      <c r="P27">
+        <v>4</v>
+      </c>
+      <c r="Q27">
+        <v>7</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <v>4</v>
+      </c>
+      <c r="T27">
+        <v>2</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
+      </c>
+      <c r="V27">
+        <v>4</v>
+      </c>
+      <c r="W27">
+        <v>8</v>
+      </c>
+      <c r="X27">
+        <v>3</v>
+      </c>
+      <c r="Y27">
+        <v>4</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+      <c r="AA27">
+        <v>0</v>
+      </c>
+      <c r="AB27">
+        <v>3</v>
+      </c>
+      <c r="AC27">
+        <v>0</v>
+      </c>
+      <c r="AD27">
+        <v>1</v>
+      </c>
+      <c r="AE27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>12</v>
+      </c>
+      <c r="E28">
+        <v>9</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>5</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>4</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>2</v>
+      </c>
+      <c r="M28">
+        <v>4</v>
+      </c>
+      <c r="N28">
+        <v>5</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>4</v>
+      </c>
+      <c r="Q28">
+        <v>1</v>
+      </c>
+      <c r="R28">
+        <v>2</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <v>8</v>
+      </c>
+      <c r="U28">
+        <v>4</v>
+      </c>
+      <c r="V28">
+        <v>0</v>
+      </c>
+      <c r="W28">
+        <v>2</v>
+      </c>
+      <c r="X28">
+        <v>0</v>
+      </c>
+      <c r="Y28">
+        <v>0</v>
+      </c>
+      <c r="Z28">
+        <v>4</v>
+      </c>
+      <c r="AA28">
+        <v>1</v>
+      </c>
+      <c r="AB28">
+        <v>0</v>
+      </c>
+      <c r="AC28">
+        <v>2</v>
+      </c>
+      <c r="AD28">
+        <v>11</v>
+      </c>
+      <c r="AE28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>6</v>
+      </c>
+      <c r="E29">
+        <v>4</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>2</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>6</v>
+      </c>
+      <c r="J29">
+        <v>3</v>
+      </c>
+      <c r="K29">
+        <v>4</v>
+      </c>
+      <c r="L29">
+        <v>11</v>
+      </c>
+      <c r="M29">
+        <v>5</v>
+      </c>
+      <c r="N29">
+        <v>14</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>2</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <v>2</v>
+      </c>
+      <c r="S29">
+        <v>2</v>
+      </c>
+      <c r="T29">
+        <v>4</v>
+      </c>
+      <c r="U29">
+        <v>9</v>
+      </c>
+      <c r="V29">
+        <v>1</v>
+      </c>
+      <c r="W29">
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <v>0</v>
+      </c>
+      <c r="Y29">
+        <v>0</v>
+      </c>
+      <c r="Z29">
+        <v>9</v>
+      </c>
+      <c r="AA29">
+        <v>0</v>
+      </c>
+      <c r="AB29">
+        <v>5</v>
+      </c>
+      <c r="AC29">
+        <v>0</v>
+      </c>
+      <c r="AD29">
+        <v>4</v>
+      </c>
+      <c r="AE29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>11</v>
+      </c>
+      <c r="E30">
+        <v>7</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>5</v>
+      </c>
+      <c r="H30">
+        <v>2</v>
+      </c>
+      <c r="I30">
+        <v>2</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>4</v>
+      </c>
+      <c r="M30">
+        <v>4</v>
+      </c>
+      <c r="N30">
+        <v>5</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>1</v>
+      </c>
+      <c r="R30">
+        <v>4</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <v>11</v>
+      </c>
+      <c r="U30">
+        <v>4</v>
+      </c>
+      <c r="V30">
+        <v>0</v>
+      </c>
+      <c r="W30">
+        <v>2</v>
+      </c>
+      <c r="X30">
+        <v>0</v>
+      </c>
+      <c r="Y30">
+        <v>0</v>
+      </c>
+      <c r="Z30">
+        <v>4</v>
+      </c>
+      <c r="AA30">
+        <v>2</v>
+      </c>
+      <c r="AB30">
+        <v>8</v>
+      </c>
+      <c r="AC30">
+        <v>2</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>11</v>
+      </c>
+      <c r="D31">
+        <v>3</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>3</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>3</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>2</v>
+      </c>
+      <c r="O31">
+        <v>2</v>
+      </c>
+      <c r="P31">
+        <v>6</v>
+      </c>
+      <c r="Q31">
+        <v>2</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <v>4</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <v>3</v>
+      </c>
+      <c r="V31">
+        <v>10</v>
+      </c>
+      <c r="W31">
+        <v>3</v>
+      </c>
+      <c r="X31">
+        <v>3</v>
+      </c>
+      <c r="Y31">
+        <v>2</v>
+      </c>
+      <c r="Z31">
+        <v>1</v>
+      </c>
+      <c r="AA31">
+        <v>5</v>
+      </c>
+      <c r="AB31">
+        <v>0</v>
+      </c>
+      <c r="AC31">
+        <v>1</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <f>SUM(B2:B31)</f>
+        <v>55</v>
+      </c>
+      <c r="C32">
+        <f>SUM(C2:C31)</f>
+        <v>70</v>
+      </c>
+      <c r="D32">
+        <f>SUM(D2:D31)</f>
+        <v>96</v>
+      </c>
+      <c r="E32">
+        <f>SUM(E2:E31)</f>
+        <v>71</v>
+      </c>
+      <c r="F32">
+        <f>SUM(F2:F31)</f>
+        <v>73</v>
+      </c>
+      <c r="G32">
+        <f>SUM(G2:G31)</f>
+        <v>73</v>
+      </c>
+      <c r="H32">
+        <f>SUM(H2:H31)</f>
+        <v>76</v>
+      </c>
+      <c r="I32">
+        <f>SUM(I2:I31)</f>
+        <v>85</v>
+      </c>
+      <c r="J32">
+        <f>SUM(J2:J31)</f>
+        <v>66</v>
+      </c>
+      <c r="K32">
+        <f>SUM(K2:K31)</f>
+        <v>90</v>
+      </c>
+      <c r="L32">
+        <f>SUM(L2:L31)</f>
+        <v>70</v>
+      </c>
+      <c r="M32">
+        <f>SUM(M2:M31)</f>
+        <v>89</v>
+      </c>
+      <c r="N32">
+        <f>SUM(N2:N31)</f>
+        <v>98</v>
+      </c>
+      <c r="O32">
+        <f>SUM(O2:O31)</f>
+        <v>94</v>
+      </c>
+      <c r="P32">
+        <f>SUM(P2:P31)</f>
+        <v>77</v>
+      </c>
+      <c r="Q32">
+        <f>SUM(Q2:Q31)</f>
+        <v>82</v>
+      </c>
+      <c r="R32">
+        <f>SUM(R2:R31)</f>
+        <v>70</v>
+      </c>
+      <c r="S32">
+        <f>SUM(S2:S31)</f>
+        <v>79</v>
+      </c>
+      <c r="T32">
+        <f>SUM(T2:T31)</f>
+        <v>84</v>
+      </c>
+      <c r="U32">
+        <f>SUM(U2:U31)</f>
+        <v>88</v>
+      </c>
+      <c r="V32">
+        <f>SUM(V2:V31)</f>
+        <v>73</v>
+      </c>
+      <c r="W32">
+        <f>SUM(W2:W31)</f>
+        <v>88</v>
+      </c>
+      <c r="X32">
+        <f>SUM(X2:X31)</f>
+        <v>77</v>
+      </c>
+      <c r="Y32">
+        <f>SUM(Y2:Y31)</f>
+        <v>88</v>
+      </c>
+      <c r="Z32">
+        <f>SUM(Z2:Z31)</f>
+        <v>87</v>
+      </c>
+      <c r="AA32">
+        <f>SUM(AA2:AA31)</f>
+        <v>90</v>
+      </c>
+      <c r="AB32">
+        <f>SUM(AB2:AB31)</f>
+        <v>77</v>
+      </c>
+      <c r="AC32">
+        <f>SUM(AC2:AC31)</f>
+        <v>67</v>
+      </c>
+      <c r="AD32">
+        <f>SUM(AD2:AD31)</f>
+        <v>83</v>
+      </c>
+      <c r="AE32">
+        <f>SUM(AE2:AE31)</f>
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Matchup Wins.xlsx
+++ b/Matchup Wins.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dewang\Desktop\MLB research\mlb-research\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80225017-9A4F-4DFB-A242-81A62BCF17B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DBCD271-58D2-4F4C-89D5-6C4D023D6230}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="1" xr2:uid="{92DF9C3A-B62C-462D-B7EB-3C089D0C4AB6}"/>
+    <workbookView xWindow="9480" yWindow="345" windowWidth="17850" windowHeight="14250" activeTab="1" xr2:uid="{92DF9C3A-B62C-462D-B7EB-3C089D0C4AB6}"/>
   </bookViews>
   <sheets>
     <sheet name="2008" sheetId="1" r:id="rId1"/>
@@ -3675,13 +3675,40 @@
   <dimension ref="A1:AE32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AE33" sqref="AE33"/>
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="23" width="0.140625" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="5" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="8" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
@@ -6631,123 +6658,123 @@
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B32">
-        <f>SUM(B2:B31)</f>
+        <f t="shared" ref="B32:AE32" si="0">SUM(B2:B31)</f>
         <v>55</v>
       </c>
       <c r="C32">
-        <f>SUM(C2:C31)</f>
+        <f t="shared" si="0"/>
         <v>70</v>
       </c>
       <c r="D32">
-        <f>SUM(D2:D31)</f>
+        <f t="shared" si="0"/>
         <v>96</v>
       </c>
       <c r="E32">
-        <f>SUM(E2:E31)</f>
+        <f t="shared" si="0"/>
         <v>71</v>
       </c>
       <c r="F32">
-        <f>SUM(F2:F31)</f>
+        <f t="shared" si="0"/>
         <v>73</v>
       </c>
       <c r="G32">
-        <f>SUM(G2:G31)</f>
+        <f t="shared" si="0"/>
         <v>73</v>
       </c>
       <c r="H32">
-        <f>SUM(H2:H31)</f>
+        <f t="shared" si="0"/>
         <v>76</v>
       </c>
       <c r="I32">
-        <f>SUM(I2:I31)</f>
+        <f t="shared" si="0"/>
         <v>85</v>
       </c>
       <c r="J32">
-        <f>SUM(J2:J31)</f>
+        <f t="shared" si="0"/>
         <v>66</v>
       </c>
       <c r="K32">
-        <f>SUM(K2:K31)</f>
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
       <c r="L32">
-        <f>SUM(L2:L31)</f>
+        <f t="shared" si="0"/>
         <v>70</v>
       </c>
       <c r="M32">
-        <f>SUM(M2:M31)</f>
+        <f t="shared" si="0"/>
         <v>89</v>
       </c>
       <c r="N32">
-        <f>SUM(N2:N31)</f>
+        <f t="shared" si="0"/>
         <v>98</v>
       </c>
       <c r="O32">
-        <f>SUM(O2:O31)</f>
+        <f t="shared" si="0"/>
         <v>94</v>
       </c>
       <c r="P32">
-        <f>SUM(P2:P31)</f>
+        <f t="shared" si="0"/>
         <v>77</v>
       </c>
       <c r="Q32">
-        <f>SUM(Q2:Q31)</f>
+        <f t="shared" si="0"/>
         <v>82</v>
       </c>
       <c r="R32">
-        <f>SUM(R2:R31)</f>
+        <f t="shared" si="0"/>
         <v>70</v>
       </c>
       <c r="S32">
-        <f>SUM(S2:S31)</f>
+        <f t="shared" si="0"/>
         <v>79</v>
       </c>
       <c r="T32">
-        <f>SUM(T2:T31)</f>
+        <f t="shared" si="0"/>
         <v>84</v>
       </c>
       <c r="U32">
-        <f>SUM(U2:U31)</f>
+        <f t="shared" si="0"/>
         <v>88</v>
       </c>
       <c r="V32">
-        <f>SUM(V2:V31)</f>
+        <f t="shared" si="0"/>
         <v>73</v>
       </c>
       <c r="W32">
-        <f>SUM(W2:W31)</f>
+        <f t="shared" si="0"/>
         <v>88</v>
       </c>
       <c r="X32">
-        <f>SUM(X2:X31)</f>
+        <f t="shared" si="0"/>
         <v>77</v>
       </c>
       <c r="Y32">
-        <f>SUM(Y2:Y31)</f>
+        <f t="shared" si="0"/>
         <v>88</v>
       </c>
       <c r="Z32">
-        <f>SUM(Z2:Z31)</f>
+        <f t="shared" si="0"/>
         <v>87</v>
       </c>
       <c r="AA32">
-        <f>SUM(AA2:AA31)</f>
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
       <c r="AB32">
-        <f>SUM(AB2:AB31)</f>
+        <f t="shared" si="0"/>
         <v>77</v>
       </c>
       <c r="AC32">
-        <f>SUM(AC2:AC31)</f>
+        <f t="shared" si="0"/>
         <v>67</v>
       </c>
       <c r="AD32">
-        <f>SUM(AD2:AD31)</f>
+        <f t="shared" si="0"/>
         <v>83</v>
       </c>
       <c r="AE32">
-        <f>SUM(AE2:AE31)</f>
+        <f t="shared" si="0"/>
         <v>96</v>
       </c>
     </row>

--- a/Matchup Wins.xlsx
+++ b/Matchup Wins.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dewang\Desktop\MLB research\mlb-research\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DBCD271-58D2-4F4C-89D5-6C4D023D6230}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7455A201-A5E1-4D52-9A0E-90F3D2646337}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9480" yWindow="345" windowWidth="17850" windowHeight="14250" activeTab="1" xr2:uid="{92DF9C3A-B62C-462D-B7EB-3C089D0C4AB6}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="1" xr2:uid="{92DF9C3A-B62C-462D-B7EB-3C089D0C4AB6}"/>
   </bookViews>
   <sheets>
     <sheet name="2008" sheetId="1" r:id="rId1"/>
-    <sheet name="2014" sheetId="2" r:id="rId2"/>
+    <sheet name="2010" sheetId="3" r:id="rId2"/>
+    <sheet name="2014" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="57">
   <si>
     <t>Teams</t>
   </si>
@@ -3671,11 +3672,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C896A4FD-5117-4C6D-9FE4-746CEA36354B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2D588D8-567E-4C6D-9EFD-38E725BDAE4F}">
   <dimension ref="A1:AE32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3814,6 +3815,3119 @@
         <v>0</v>
       </c>
       <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>6</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>5</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>9</v>
+      </c>
+      <c r="K2">
+        <v>2</v>
+      </c>
+      <c r="L2">
+        <v>3</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>13</v>
+      </c>
+      <c r="P2">
+        <v>3</v>
+      </c>
+      <c r="Q2">
+        <v>4</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="T2">
+        <v>2</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>4</v>
+      </c>
+      <c r="W2">
+        <v>4</v>
+      </c>
+      <c r="X2">
+        <v>10</v>
+      </c>
+      <c r="Y2">
+        <v>13</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>5</v>
+      </c>
+      <c r="AB2">
+        <v>1</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>1</v>
+      </c>
+      <c r="AE2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>4</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>3</v>
+      </c>
+      <c r="P3">
+        <v>7</v>
+      </c>
+      <c r="Q3">
+        <v>2</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3">
+        <v>7</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>10</v>
+      </c>
+      <c r="W3">
+        <v>3</v>
+      </c>
+      <c r="X3">
+        <v>2</v>
+      </c>
+      <c r="Y3">
+        <v>3</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>6</v>
+      </c>
+      <c r="AB3">
+        <v>1</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>9</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>5</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>4</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>2</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>5</v>
+      </c>
+      <c r="S4">
+        <v>3</v>
+      </c>
+      <c r="T4">
+        <v>13</v>
+      </c>
+      <c r="U4">
+        <v>7</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>2</v>
+      </c>
+      <c r="Y4">
+        <v>2</v>
+      </c>
+      <c r="Z4">
+        <v>6</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>11</v>
+      </c>
+      <c r="AC4">
+        <v>4</v>
+      </c>
+      <c r="AD4">
+        <v>15</v>
+      </c>
+      <c r="AE4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>9</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>6</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>3</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>2</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>9</v>
+      </c>
+      <c r="U5">
+        <v>5</v>
+      </c>
+      <c r="V5">
+        <v>2</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>1</v>
+      </c>
+      <c r="Z5">
+        <v>3</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>11</v>
+      </c>
+      <c r="AC5">
+        <v>6</v>
+      </c>
+      <c r="AD5">
+        <v>6</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>4</v>
+      </c>
+      <c r="H6">
+        <v>12</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>3</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>11</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>2</v>
+      </c>
+      <c r="O6">
+        <v>4</v>
+      </c>
+      <c r="P6">
+        <v>2</v>
+      </c>
+      <c r="Q6">
+        <v>6</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>4</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>1</v>
+      </c>
+      <c r="V6">
+        <v>2</v>
+      </c>
+      <c r="W6">
+        <v>10</v>
+      </c>
+      <c r="X6">
+        <v>5</v>
+      </c>
+      <c r="Y6">
+        <v>5</v>
+      </c>
+      <c r="Z6">
+        <v>2</v>
+      </c>
+      <c r="AA6">
+        <v>6</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>1</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>9</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>10</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>8</v>
+      </c>
+      <c r="N7">
+        <v>2</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>13</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>4</v>
+      </c>
+      <c r="U7">
+        <v>5</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>1</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>4</v>
+      </c>
+      <c r="AC7">
+        <v>5</v>
+      </c>
+      <c r="AD7">
+        <v>5</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>4</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+      <c r="J8">
+        <v>5</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>5</v>
+      </c>
+      <c r="M8">
+        <v>2</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>4</v>
+      </c>
+      <c r="P8">
+        <v>2</v>
+      </c>
+      <c r="Q8">
+        <v>3</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>2</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>5</v>
+      </c>
+      <c r="W8">
+        <v>6</v>
+      </c>
+      <c r="X8">
+        <v>4</v>
+      </c>
+      <c r="Y8">
+        <v>4</v>
+      </c>
+      <c r="Z8">
+        <v>3</v>
+      </c>
+      <c r="AA8">
+        <v>12</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>9</v>
+      </c>
+      <c r="H9">
+        <v>4</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>9</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>8</v>
+      </c>
+      <c r="N9">
+        <v>4</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>12</v>
+      </c>
+      <c r="S9">
+        <v>3</v>
+      </c>
+      <c r="T9">
+        <v>6</v>
+      </c>
+      <c r="U9">
+        <v>6</v>
+      </c>
+      <c r="V9">
+        <v>3</v>
+      </c>
+      <c r="W9">
+        <v>2</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>4</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>7</v>
+      </c>
+      <c r="AC9">
+        <v>4</v>
+      </c>
+      <c r="AD9">
+        <v>4</v>
+      </c>
+      <c r="AE9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>4</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>2</v>
+      </c>
+      <c r="O10">
+        <v>11</v>
+      </c>
+      <c r="P10">
+        <v>4</v>
+      </c>
+      <c r="Q10">
+        <v>4</v>
+      </c>
+      <c r="R10">
+        <v>2</v>
+      </c>
+      <c r="S10">
+        <v>3</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>6</v>
+      </c>
+      <c r="W10">
+        <v>4</v>
+      </c>
+      <c r="X10">
+        <v>6</v>
+      </c>
+      <c r="Y10">
+        <v>9</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>4</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>8</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>9</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>8</v>
+      </c>
+      <c r="N11">
+        <v>4</v>
+      </c>
+      <c r="O11">
+        <v>2</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>9</v>
+      </c>
+      <c r="S11">
+        <v>2</v>
+      </c>
+      <c r="T11">
+        <v>4</v>
+      </c>
+      <c r="U11">
+        <v>3</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>5</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>6</v>
+      </c>
+      <c r="AC11">
+        <v>6</v>
+      </c>
+      <c r="AD11">
+        <v>4</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>7</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>10</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>2</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>2</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>4</v>
+      </c>
+      <c r="P12">
+        <v>3</v>
+      </c>
+      <c r="Q12">
+        <v>7</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>4</v>
+      </c>
+      <c r="T12">
+        <v>3</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>3</v>
+      </c>
+      <c r="W12">
+        <v>4</v>
+      </c>
+      <c r="X12">
+        <v>5</v>
+      </c>
+      <c r="Y12">
+        <v>7</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>5</v>
+      </c>
+      <c r="AB12">
+        <v>2</v>
+      </c>
+      <c r="AC12">
+        <v>5</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>10</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>10</v>
+      </c>
+      <c r="J13">
+        <v>2</v>
+      </c>
+      <c r="K13">
+        <v>10</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>7</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>13</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>5</v>
+      </c>
+      <c r="U13">
+        <v>6</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>4</v>
+      </c>
+      <c r="AA13">
+        <v>1</v>
+      </c>
+      <c r="AB13">
+        <v>4</v>
+      </c>
+      <c r="AC13">
+        <v>7</v>
+      </c>
+      <c r="AD13">
+        <v>3</v>
+      </c>
+      <c r="AE13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>6</v>
+      </c>
+      <c r="E14">
+        <v>9</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>7</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>5</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>6</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>3</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>2</v>
+      </c>
+      <c r="R14">
+        <v>5</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>4</v>
+      </c>
+      <c r="U14">
+        <v>8</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>4</v>
+      </c>
+      <c r="AA14">
+        <v>2</v>
+      </c>
+      <c r="AB14">
+        <v>5</v>
+      </c>
+      <c r="AC14">
+        <v>10</v>
+      </c>
+      <c r="AD14">
+        <v>3</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>5</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>7</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>2</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>5</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>4</v>
+      </c>
+      <c r="Q15">
+        <v>2</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>4</v>
+      </c>
+      <c r="T15">
+        <v>2</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>4</v>
+      </c>
+      <c r="W15">
+        <v>3</v>
+      </c>
+      <c r="X15">
+        <v>10</v>
+      </c>
+      <c r="Y15">
+        <v>10</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>4</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>11</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>4</v>
+      </c>
+      <c r="G16">
+        <v>2</v>
+      </c>
+      <c r="H16">
+        <v>5</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>3</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>3</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>2</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>4</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>6</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>13</v>
+      </c>
+      <c r="W16">
+        <v>2</v>
+      </c>
+      <c r="X16">
+        <v>6</v>
+      </c>
+      <c r="Y16">
+        <v>5</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>2</v>
+      </c>
+      <c r="AB16">
+        <v>2</v>
+      </c>
+      <c r="AC16">
+        <v>3</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <v>5</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>9</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>11</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>5</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>8</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>4</v>
+      </c>
+      <c r="P17">
+        <v>4</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>2</v>
+      </c>
+      <c r="S17">
+        <v>2</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>5</v>
+      </c>
+      <c r="W17">
+        <v>5</v>
+      </c>
+      <c r="X17">
+        <v>4</v>
+      </c>
+      <c r="Y17">
+        <v>5</v>
+      </c>
+      <c r="Z17">
+        <v>1</v>
+      </c>
+      <c r="AA17">
+        <v>7</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <v>2</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>5</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>6</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>9</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>5</v>
+      </c>
+      <c r="N18">
+        <v>2</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>4</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>2</v>
+      </c>
+      <c r="T18">
+        <v>4</v>
+      </c>
+      <c r="U18">
+        <v>3</v>
+      </c>
+      <c r="V18">
+        <v>1</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>4</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>5</v>
+      </c>
+      <c r="AC18">
+        <v>3</v>
+      </c>
+      <c r="AD18">
+        <v>6</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>5</v>
+      </c>
+      <c r="C19">
+        <v>11</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>3</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>4</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>3</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>3</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>3</v>
+      </c>
+      <c r="P19">
+        <v>12</v>
+      </c>
+      <c r="Q19">
+        <v>5</v>
+      </c>
+      <c r="R19">
+        <v>1</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>3</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>9</v>
+      </c>
+      <c r="W19">
+        <v>1</v>
+      </c>
+      <c r="X19">
+        <v>3</v>
+      </c>
+      <c r="Y19">
+        <v>4</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <v>3</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+      <c r="AC19">
+        <v>0</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>5</v>
+      </c>
+      <c r="E20">
+        <v>9</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>2</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>2</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>4</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>3</v>
+      </c>
+      <c r="N20">
+        <v>4</v>
+      </c>
+      <c r="O20">
+        <v>1</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>2</v>
+      </c>
+      <c r="S20">
+        <v>3</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>1</v>
+      </c>
+      <c r="V20">
+        <v>2</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <v>4</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>10</v>
+      </c>
+      <c r="AC20">
+        <v>4</v>
+      </c>
+      <c r="AD20">
+        <v>10</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21">
+        <v>4</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="G21">
+        <v>4</v>
+      </c>
+      <c r="H21">
+        <v>3</v>
+      </c>
+      <c r="I21">
+        <v>3</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>3</v>
+      </c>
+      <c r="N21">
+        <v>11</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>6</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>9</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>3</v>
+      </c>
+      <c r="Z21">
+        <v>6</v>
+      </c>
+      <c r="AA21">
+        <v>2</v>
+      </c>
+      <c r="AB21">
+        <v>5</v>
+      </c>
+      <c r="AC21">
+        <v>10</v>
+      </c>
+      <c r="AD21">
+        <v>4</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <v>8</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>4</v>
+      </c>
+      <c r="F22">
+        <v>4</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>2</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>4</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>2</v>
+      </c>
+      <c r="P22">
+        <v>5</v>
+      </c>
+      <c r="Q22">
+        <v>1</v>
+      </c>
+      <c r="R22">
+        <v>2</v>
+      </c>
+      <c r="S22">
+        <v>9</v>
+      </c>
+      <c r="T22">
+        <v>1</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>4</v>
+      </c>
+      <c r="X22">
+        <v>2</v>
+      </c>
+      <c r="Y22">
+        <v>3</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <v>4</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+      <c r="AC22">
+        <v>0</v>
+      </c>
+      <c r="AD22">
+        <v>1</v>
+      </c>
+      <c r="AE22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>6</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>5</v>
+      </c>
+      <c r="G23">
+        <v>3</v>
+      </c>
+      <c r="H23">
+        <v>10</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>3</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>11</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>4</v>
+      </c>
+      <c r="P23">
+        <v>6</v>
+      </c>
+      <c r="Q23">
+        <v>13</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>6</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>3</v>
+      </c>
+      <c r="V23">
+        <v>2</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>6</v>
+      </c>
+      <c r="Y23">
+        <v>4</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23">
+        <v>9</v>
+      </c>
+      <c r="AB23">
+        <v>0</v>
+      </c>
+      <c r="AC23">
+        <v>3</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>8</v>
+      </c>
+      <c r="C24">
+        <v>4</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>3</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>2</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>12</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>2</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>8</v>
+      </c>
+      <c r="P24">
+        <v>3</v>
+      </c>
+      <c r="Q24">
+        <v>3</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>3</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>5</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <v>6</v>
+      </c>
+      <c r="Z24">
+        <v>2</v>
+      </c>
+      <c r="AA24">
+        <v>4</v>
+      </c>
+      <c r="AB24">
+        <v>1</v>
+      </c>
+      <c r="AC24">
+        <v>0</v>
+      </c>
+      <c r="AD24">
+        <v>2</v>
+      </c>
+      <c r="AE24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>5</v>
+      </c>
+      <c r="C25">
+        <v>4</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>3</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>9</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>2</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>8</v>
+      </c>
+      <c r="P25">
+        <v>2</v>
+      </c>
+      <c r="Q25">
+        <v>2</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>3</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>3</v>
+      </c>
+      <c r="V25">
+        <v>3</v>
+      </c>
+      <c r="W25">
+        <v>2</v>
+      </c>
+      <c r="X25">
+        <v>12</v>
+      </c>
+      <c r="Y25">
+        <v>0</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+      <c r="AA25">
+        <v>3</v>
+      </c>
+      <c r="AB25">
+        <v>0</v>
+      </c>
+      <c r="AC25">
+        <v>0</v>
+      </c>
+      <c r="AD25">
+        <v>2</v>
+      </c>
+      <c r="AE25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
+      <c r="E26">
+        <v>7</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>9</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>3</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>5</v>
+      </c>
+      <c r="N26">
+        <v>15</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>2</v>
+      </c>
+      <c r="R26">
+        <v>6</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <v>6</v>
+      </c>
+      <c r="U26">
+        <v>13</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <v>4</v>
+      </c>
+      <c r="Y26">
+        <v>0</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+      <c r="AA26">
+        <v>2</v>
+      </c>
+      <c r="AB26">
+        <v>7</v>
+      </c>
+      <c r="AC26">
+        <v>12</v>
+      </c>
+      <c r="AD26">
+        <v>3</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>4</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>9</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>6</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>3</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>10</v>
+      </c>
+      <c r="M27">
+        <v>2</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>3</v>
+      </c>
+      <c r="P27">
+        <v>3</v>
+      </c>
+      <c r="Q27">
+        <v>8</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <v>3</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <v>1</v>
+      </c>
+      <c r="V27">
+        <v>4</v>
+      </c>
+      <c r="W27">
+        <v>6</v>
+      </c>
+      <c r="X27">
+        <v>3</v>
+      </c>
+      <c r="Y27">
+        <v>3</v>
+      </c>
+      <c r="Z27">
+        <v>1</v>
+      </c>
+      <c r="AA27">
+        <v>0</v>
+      </c>
+      <c r="AB27">
+        <v>0</v>
+      </c>
+      <c r="AC27">
+        <v>0</v>
+      </c>
+      <c r="AD27">
+        <v>1</v>
+      </c>
+      <c r="AE27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28">
+        <v>7</v>
+      </c>
+      <c r="E28">
+        <v>7</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>3</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>2</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>4</v>
+      </c>
+      <c r="N28">
+        <v>4</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>4</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <v>3</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <v>8</v>
+      </c>
+      <c r="U28">
+        <v>4</v>
+      </c>
+      <c r="V28">
+        <v>0</v>
+      </c>
+      <c r="W28">
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <v>2</v>
+      </c>
+      <c r="Y28">
+        <v>0</v>
+      </c>
+      <c r="Z28">
+        <v>2</v>
+      </c>
+      <c r="AA28">
+        <v>0</v>
+      </c>
+      <c r="AB28">
+        <v>0</v>
+      </c>
+      <c r="AC28">
+        <v>2</v>
+      </c>
+      <c r="AD28">
+        <v>8</v>
+      </c>
+      <c r="AE28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>6</v>
+      </c>
+      <c r="E29">
+        <v>4</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+      <c r="G29">
+        <v>4</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>2</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>2</v>
+      </c>
+      <c r="N29">
+        <v>9</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>1</v>
+      </c>
+      <c r="R29">
+        <v>7</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <v>4</v>
+      </c>
+      <c r="U29">
+        <v>9</v>
+      </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="W29">
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <v>0</v>
+      </c>
+      <c r="Y29">
+        <v>0</v>
+      </c>
+      <c r="Z29">
+        <v>7</v>
+      </c>
+      <c r="AA29">
+        <v>0</v>
+      </c>
+      <c r="AB29">
+        <v>4</v>
+      </c>
+      <c r="AC29">
+        <v>0</v>
+      </c>
+      <c r="AD29">
+        <v>7</v>
+      </c>
+      <c r="AE29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>3</v>
+      </c>
+      <c r="E30">
+        <v>12</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>3</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>6</v>
+      </c>
+      <c r="J30">
+        <v>3</v>
+      </c>
+      <c r="K30">
+        <v>4</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>3</v>
+      </c>
+      <c r="N30">
+        <v>6</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>3</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <v>8</v>
+      </c>
+      <c r="U30">
+        <v>3</v>
+      </c>
+      <c r="V30">
+        <v>2</v>
+      </c>
+      <c r="W30">
+        <v>0</v>
+      </c>
+      <c r="X30">
+        <v>1</v>
+      </c>
+      <c r="Y30">
+        <v>1</v>
+      </c>
+      <c r="Z30">
+        <v>2</v>
+      </c>
+      <c r="AA30">
+        <v>2</v>
+      </c>
+      <c r="AB30">
+        <v>10</v>
+      </c>
+      <c r="AC30">
+        <v>3</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>3</v>
+      </c>
+      <c r="C31">
+        <v>8</v>
+      </c>
+      <c r="D31">
+        <v>4</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>4</v>
+      </c>
+      <c r="G31">
+        <v>3</v>
+      </c>
+      <c r="H31">
+        <v>4</v>
+      </c>
+      <c r="I31">
+        <v>2</v>
+      </c>
+      <c r="J31">
+        <v>5</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>4</v>
+      </c>
+      <c r="M31">
+        <v>1</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>3</v>
+      </c>
+      <c r="P31">
+        <v>13</v>
+      </c>
+      <c r="Q31">
+        <v>4</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <v>9</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <v>0</v>
+      </c>
+      <c r="V31">
+        <v>12</v>
+      </c>
+      <c r="W31">
+        <v>1</v>
+      </c>
+      <c r="X31">
+        <v>3</v>
+      </c>
+      <c r="Y31">
+        <v>4</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+      <c r="AA31">
+        <v>3</v>
+      </c>
+      <c r="AB31">
+        <v>0</v>
+      </c>
+      <c r="AC31">
+        <v>0</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <f>SUM(B2:B31)</f>
+        <v>65</v>
+      </c>
+      <c r="C32">
+        <f>SUM(C2:C31)</f>
+        <v>91</v>
+      </c>
+      <c r="D32">
+        <f>SUM(D2:D31)</f>
+        <v>66</v>
+      </c>
+      <c r="E32">
+        <f>SUM(E2:E31)</f>
+        <v>89</v>
+      </c>
+      <c r="F32">
+        <f>SUM(F2:F31)</f>
+        <v>75</v>
+      </c>
+      <c r="G32">
+        <f>SUM(G2:G31)</f>
+        <v>88</v>
+      </c>
+      <c r="H32">
+        <f>SUM(H2:H31)</f>
+        <v>91</v>
+      </c>
+      <c r="I32">
+        <f>SUM(I2:I31)</f>
+        <v>69</v>
+      </c>
+      <c r="J32">
+        <f>SUM(J2:J31)</f>
+        <v>83</v>
+      </c>
+      <c r="K32">
+        <f>SUM(K2:K31)</f>
+        <v>81</v>
+      </c>
+      <c r="L32">
+        <f>SUM(L2:L31)</f>
+        <v>76</v>
+      </c>
+      <c r="M32">
+        <f>SUM(M2:M31)</f>
+        <v>67</v>
+      </c>
+      <c r="N32">
+        <f>SUM(N2:N31)</f>
+        <v>80</v>
+      </c>
+      <c r="O32">
+        <f>SUM(O2:O31)</f>
+        <v>80</v>
+      </c>
+      <c r="P32">
+        <f>SUM(P2:P31)</f>
+        <v>80</v>
+      </c>
+      <c r="Q32">
+        <f>SUM(Q2:Q31)</f>
+        <v>77</v>
+      </c>
+      <c r="R32">
+        <f>SUM(R2:R31)</f>
+        <v>94</v>
+      </c>
+      <c r="S32">
+        <f>SUM(S2:S31)</f>
+        <v>79</v>
+      </c>
+      <c r="T32">
+        <f>SUM(T2:T31)</f>
+        <v>95</v>
+      </c>
+      <c r="U32">
+        <f>SUM(U2:U31)</f>
+        <v>81</v>
+      </c>
+      <c r="V32">
+        <f>SUM(V2:V31)</f>
+        <v>97</v>
+      </c>
+      <c r="W32">
+        <f>SUM(W2:W31)</f>
+        <v>57</v>
+      </c>
+      <c r="X32">
+        <f>SUM(X2:X31)</f>
+        <v>90</v>
+      </c>
+      <c r="Y32">
+        <f>SUM(Y2:Y31)</f>
+        <v>92</v>
+      </c>
+      <c r="Z32">
+        <f>SUM(Z2:Z31)</f>
+        <v>61</v>
+      </c>
+      <c r="AA32">
+        <f>SUM(AA2:AA31)</f>
+        <v>86</v>
+      </c>
+      <c r="AB32">
+        <f>SUM(AB2:AB31)</f>
+        <v>96</v>
+      </c>
+      <c r="AC32">
+        <f>SUM(AC2:AC31)</f>
+        <v>90</v>
+      </c>
+      <c r="AD32">
+        <f>SUM(AD2:AD31)</f>
+        <v>85</v>
+      </c>
+      <c r="AE32">
+        <f>SUM(AE2:AE31)</f>
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C896A4FD-5117-4C6D-9FE4-746CEA36354B}">
+  <dimension ref="A1:AE32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="5" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="8" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="9.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R1" t="s">
+        <v>43</v>
+      </c>
+      <c r="S1" t="s">
+        <v>44</v>
+      </c>
+      <c r="T1" t="s">
+        <v>45</v>
+      </c>
+      <c r="U1" t="s">
+        <v>46</v>
+      </c>
+      <c r="V1" t="s">
+        <v>47</v>
+      </c>
+      <c r="W1" t="s">
+        <v>48</v>
+      </c>
+      <c r="X1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
         <v>3</v>
       </c>
       <c r="D2">
